--- a/likeActivity.xlsx
+++ b/likeActivity.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
   <si>
     <t>User ID</t>
   </si>
@@ -102,6 +102,63 @@
   </si>
   <si>
     <t>240</t>
+  </si>
+  <si>
+    <t>"148"</t>
+  </si>
+  <si>
+    <t>"637"</t>
+  </si>
+  <si>
+    <t>"543"</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>"380"</t>
+  </si>
+  <si>
+    <t>"225"</t>
+  </si>
+  <si>
+    <t>"14"</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>"97"</t>
+  </si>
+  <si>
+    <t>"992"</t>
+  </si>
+  <si>
+    <t>"793"</t>
   </si>
 </sst>
 </file>
@@ -146,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -472,6 +529,246 @@
         <v>29</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/likeActivity.xlsx
+++ b/likeActivity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bianweizhenbian/Documents/硕士(上)/ISY5001/04 Practice Module/IDEA/"/>
     </mc:Choice>
@@ -20,18 +20,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>User ID</t>
   </si>
   <si>
     <t>Web ID</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>"-1818046137"</t>
+  </si>
+  <si>
+    <t>"1266535773"</t>
+  </si>
+  <si>
+    <t>"2099624679"</t>
+  </si>
+  <si>
+    <t>"1643022902"</t>
+  </si>
+  <si>
+    <t>"-1907938938"</t>
+  </si>
+  <si>
+    <t>"1130273669"</t>
+  </si>
+  <si>
+    <t>1140289467</t>
+  </si>
+  <si>
+    <t>-758977943</t>
+  </si>
+  <si>
+    <t>1916833487</t>
+  </si>
+  <si>
+    <t>1038002917</t>
+  </si>
+  <si>
+    <t>1870299980</t>
+  </si>
+  <si>
+    <t>2140867156</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>"-9497317"</t>
+  </si>
+  <si>
+    <t>"745987853"</t>
+  </si>
+  <si>
+    <t>"-970523132"</t>
+  </si>
+  <si>
+    <t>"-126390481"</t>
+  </si>
+  <si>
+    <t>"2084314942"</t>
+  </si>
+  <si>
+    <t>-1359415656</t>
+  </si>
+  <si>
+    <t>1224929262</t>
+  </si>
+  <si>
+    <t>-1179882960</t>
+  </si>
+  <si>
+    <t>1326925154</t>
+  </si>
+  <si>
+    <t>-968612111</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>"-643855223"</t>
+  </si>
+  <si>
+    <t>"-1295557743"</t>
+  </si>
+  <si>
+    <t>"1114534077"</t>
+  </si>
+  <si>
+    <t>"-1600364345"</t>
+  </si>
+  <si>
+    <t>-257334476</t>
+  </si>
+  <si>
+    <t>608664263</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -388,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B71"/>
@@ -404,6 +498,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
